--- a/src/main/resources/excel/数据表-test.xlsx
+++ b/src/main/resources/excel/数据表-test.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stock-库存" sheetId="1" r:id="rId1"/>
+    <sheet name="out_stock-出库" sheetId="2" r:id="rId2"/>
+    <sheet name="customs_list-报关清单" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,280 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文品名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>供应商名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存件数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存体积</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>packaging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>客户</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_order_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery order No</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>出仓单号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文注解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文注解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>船公司</t>
+    </r>
+  </si>
+  <si>
+    <t>shipping company</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文注解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文注解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文注解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文注解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_order_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进仓单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <r>
       <rPr>
@@ -38,175 +313,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>中文品名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>数量</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>供应商名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>图片</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>备注</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进仓单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存件数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存体积</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>包装</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>packaging</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctns</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>客户</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文注解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文注解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>in_order_no</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -585,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -600,153 +708,311 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/excel/数据表-test.xlsx
+++ b/src/main/resources/excel/数据表-test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="stock-库存" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>goods_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -315,6 +311,10 @@
   <si>
     <t>包装</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_nAme2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -708,53 +708,53 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -774,7 +774,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
@@ -788,7 +788,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -818,7 +818,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -834,7 +834,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -849,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,21 +897,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -919,14 +919,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -967,48 +967,48 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
